--- a/www/asso_donation.xlsx
+++ b/www/asso_donation.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Id_membre</t>
-  </si>
-  <si>
     <t>Prénom</t>
   </si>
   <si>
@@ -38,6 +35,12 @@
     <t>Date enregistrement</t>
   </si>
   <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>NUméro de reçu</t>
+  </si>
+  <si>
     <t>Joelle</t>
   </si>
   <si>
@@ -50,85 +53,10 @@
     <t>2019-08-12 06:45:34</t>
   </si>
   <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>2019-07-12 06:46:01</t>
-  </si>
-  <si>
-    <t>2019-06-12 06:46:22</t>
-  </si>
-  <si>
-    <t>2019-05-12 06:47:02</t>
-  </si>
-  <si>
-    <t>2019-04-19 06:44:24</t>
-  </si>
-  <si>
-    <t>Amang</t>
-  </si>
-  <si>
-    <t>2019-04-19 06:43:59</t>
-  </si>
-  <si>
-    <t>Science &amp; vie TV</t>
-  </si>
-  <si>
-    <t>AB Regis</t>
-  </si>
-  <si>
-    <t>2019-04-17 12:17:06</t>
-  </si>
-  <si>
-    <t>2019-04-17 12:16:10</t>
-  </si>
-  <si>
-    <t>Guillaume</t>
-  </si>
-  <si>
-    <t>Achard</t>
-  </si>
-  <si>
-    <t>2019-04-17 08:48:28</t>
-  </si>
-  <si>
-    <t>2019-04-12 06:46:48</t>
-  </si>
-  <si>
-    <t>2019-03-11 07:23:41</t>
-  </si>
-  <si>
-    <t>2019-02-12 06:47:14</t>
-  </si>
-  <si>
-    <t>Valérie</t>
-  </si>
-  <si>
-    <t>Aguet</t>
-  </si>
-  <si>
-    <t>Aliya</t>
-  </si>
-  <si>
-    <t>2019-01-01 05:38:56</t>
-  </si>
-  <si>
-    <t>Sanaa</t>
-  </si>
-  <si>
-    <t>Abrosimov</t>
-  </si>
-  <si>
-    <t>Akan</t>
-  </si>
-  <si>
-    <t>2018-03-10 14:03:34</t>
-  </si>
-  <si>
-    <t>Alfika</t>
-  </si>
-  <si>
-    <t>2018-01-10 14:03:23</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>R_2019_Gibbon_1001_Joelle_Aazzouz</t>
   </si>
 </sst>
 </file>
@@ -467,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,335 +425,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
         <v>83</v>
       </c>
-      <c r="B2">
-        <v>1340</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>300</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>82</v>
-      </c>
-      <c r="B3">
-        <v>6311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>1000</v>
-      </c>
-      <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>81</v>
-      </c>
-      <c r="B4">
-        <v>6311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>80</v>
-      </c>
-      <c r="B5">
-        <v>6311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>1500</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6">
-        <v>1340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>333</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>104</v>
-      </c>
-      <c r="B7">
-        <v>1340</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>89</v>
-      </c>
-      <c r="B8">
-        <v>4279</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>87</v>
-      </c>
-      <c r="B9">
-        <v>1340</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>1233</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>86</v>
-      </c>
-      <c r="B10">
-        <v>3634</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>1112</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>79</v>
-      </c>
-      <c r="B11">
-        <v>6311</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>1200</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>78</v>
-      </c>
-      <c r="B12">
-        <v>6311</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>1400</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>76</v>
-      </c>
-      <c r="B13">
-        <v>6311</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>1300</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>4267</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>800</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2402</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>5555</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>3634</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16">
-        <v>99999</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
